--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54426.11749404085</v>
+        <v>-60661.43499319594</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25841374.97493689</v>
+        <v>25841374.97493688</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4246294.160304051</v>
+        <v>4246294.16030405</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.937683571882594</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>376.6861762689736</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>220.3533661548943</v>
+        <v>13.58463948630014</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>132.0005882556636</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>135.0644840499559</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>184.3012478033028</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>293.9102409569045</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>132.413209734795</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1478756737229</v>
+        <v>34.79828558145676</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>359.215317911497</v>
       </c>
       <c r="X11" t="n">
-        <v>115.1000449748476</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H12" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>23.88267576758777</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>118.307242143337</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>419.5606265775419</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>64.19216575788683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>139.9082051040915</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>174.3417127825604</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>221.1583134026086</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>391.0833740066053</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F18" t="n">
-        <v>82.55</v>
+        <v>82.55000000000001</v>
       </c>
       <c r="G18" t="n">
         <v>84.53123883647795</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.3792129943166</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>91.46127493139562</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>181.5446809651343</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>293.1637189657521</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>37.33082294705042</v>
       </c>
       <c r="X22" t="n">
-        <v>236.1499922082651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>394.5194885856892</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>11.53283326035225</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>159.5828560759984</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>146.1497286896993</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>251.3570587334248</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.5867542297959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2845,22 +2845,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>90.06325522584437</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>45.38682686930591</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>5.64492333244486</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.20072783696358</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>102.5852382553438</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>153.7836595035047</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>72.21462998383448</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>273.5374354446149</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.2509084593698</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>11.70684589621514</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>53.93945200553801</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>146.5840330380425</v>
       </c>
       <c r="X38" t="n">
-        <v>117.3593277148931</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>152.9189507365546</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.85021358836507</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.407212651118701</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>386.1273223686326</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>144.1480758989743</v>
       </c>
       <c r="X43" t="n">
-        <v>93.41827306551629</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>378.3480422637228</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.1978536353304</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4030,16 +4030,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.8610443230926</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.9421322372</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C2" t="n">
-        <v>462.9421322372</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E2" t="n">
-        <v>34.36045797446834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4369,13 +4369,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1316.69234294004</v>
       </c>
     </row>
     <row r="3">
@@ -4400,19 +4400,19 @@
         <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L3" t="n">
         <v>1159.957753041174</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6507226398521</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="C4" t="n">
-        <v>210.6507226398521</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D4" t="n">
-        <v>210.6507226398521</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4488,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1250.986553248845</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>978.9601488351361</v>
       </c>
       <c r="X4" t="n">
-        <v>210.6507226398521</v>
+        <v>965.2382907681663</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.6507226398521</v>
+        <v>737.8186200822745</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.36045797446834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C5" t="n">
-        <v>34.36045797446834</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D5" t="n">
-        <v>34.36045797446834</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E5" t="n">
-        <v>34.36045797446834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4594,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1480.197628733281</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1220.975326050298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>858.3583759841243</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>453.5029213951576</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>34.36045797446834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>34.36045797446834</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4652,22 +4652,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.6817019292769</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="C7" t="n">
-        <v>542.1199904125018</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
         <v>33.94366860160834</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>986.7081063429853</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W7" t="n">
-        <v>714.6817019292769</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X7" t="n">
-        <v>714.6817019292769</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.6817019292769</v>
+        <v>347.0794944074844</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H8" t="n">
         <v>33.94366860160834</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1479.780839360421</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1220.558536677438</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>857.9415866112644</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0861320222976</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X8" t="n">
-        <v>33.94366860160834</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.94366860160834</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>874.0494664914149</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R9" t="n">
         <v>1697.183430080417</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>205.8102096861769</v>
+        <v>238.851455766484</v>
       </c>
       <c r="C10" t="n">
-        <v>205.8102096861769</v>
+        <v>238.851455766484</v>
       </c>
       <c r="D10" t="n">
-        <v>205.8102096861769</v>
+        <v>238.851455766484</v>
       </c>
       <c r="E10" t="n">
-        <v>205.8102096861769</v>
+        <v>69.09345201722124</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4962,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4995,19 +4995,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X10" t="n">
-        <v>433.2298803720686</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.8102096861769</v>
+        <v>238.851455766484</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.920758388652</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C11" t="n">
-        <v>1580.920758388652</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D11" t="n">
-        <v>1152.33908412592</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E11" t="n">
-        <v>1152.33908412592</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F11" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G11" t="n">
         <v>323.0738231583921</v>
@@ -5071,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V11" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W11" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X11" t="n">
-        <v>1580.920758388652</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.920758388652</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5126,16 +5126,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>838.3506954956167</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C13" t="n">
-        <v>665.7889839788417</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D13" t="n">
-        <v>499.9109911803644</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E13" t="n">
-        <v>330.1529874311016</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
-        <v>153.4459333928578</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
         <v>33.94366860160834</v>
@@ -5229,22 +5229,22 @@
         <v>1675.765608785789</v>
       </c>
       <c r="T13" t="n">
-        <v>1675.765608785789</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U13" t="n">
-        <v>1397.332608038895</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V13" t="n">
-        <v>1110.377099909325</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W13" t="n">
-        <v>838.3506954956167</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X13" t="n">
-        <v>838.3506954956167</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y13" t="n">
-        <v>838.3506954956167</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>457.7422813061962</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>1153.05332879786</v>
       </c>
       <c r="E14" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5281,19 +5281,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N14" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O14" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P14" t="n">
         <v>1107.976466382457</v>
@@ -5308,22 +5308,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W14" t="n">
-        <v>1292.327975491451</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X14" t="n">
-        <v>1292.327975491451</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y14" t="n">
-        <v>884.041851791104</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
         <v>433.6589524295435</v>
@@ -5348,7 +5348,7 @@
         <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
@@ -5363,19 +5363,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q15" t="n">
         <v>1580.010651986078</v>
@@ -5399,10 +5399,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X15" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y15" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1113.00182921349</v>
+        <v>687.6081384846543</v>
       </c>
       <c r="C16" t="n">
-        <v>940.4401176967148</v>
+        <v>687.6081384846543</v>
       </c>
       <c r="D16" t="n">
-        <v>774.5621248982375</v>
+        <v>521.730145686177</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8041211489747</v>
+        <v>351.9721419369143</v>
       </c>
       <c r="F16" t="n">
-        <v>428.0970671107308</v>
+        <v>175.2650878986705</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I16" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1291.875698540254</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1639.382592510596</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5463,25 +5463,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T16" t="n">
-        <v>1516.524240083786</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U16" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V16" t="n">
-        <v>1516.524240083786</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W16" t="n">
-        <v>1516.524240083786</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X16" t="n">
-        <v>1340.421499899382</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.00182921349</v>
+        <v>879.4267572036415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.94366860160834</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="C17" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9175786245507</v>
       </c>
       <c r="D17" t="n">
-        <v>33.94366860160834</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="E17" t="n">
-        <v>33.94366860160834</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94366860160834</v>
+        <v>257.3359043618191</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5515,22 +5515,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K17" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L17" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M17" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N17" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O17" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5548,19 +5548,19 @@
         <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1217.893900270473</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V17" t="n">
-        <v>855.2769502042993</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W17" t="n">
-        <v>855.2769502042993</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X17" t="n">
-        <v>460.2432390865162</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y17" t="n">
-        <v>460.2432390865162</v>
+        <v>1114.499252887282</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5582,7 +5582,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
         <v>75.67932078539587</v>
@@ -5597,19 +5597,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5636,10 +5636,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X18" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y18" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.7206514241503</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>686.1888934972177</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>520.3109006987404</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H19" t="n">
         <v>33.94366860160834</v>
@@ -5673,19 +5673,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L19" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M19" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N19" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
         <v>1181.483761245743</v>
@@ -5700,25 +5700,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U19" t="n">
-        <v>1397.332608038895</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V19" t="n">
-        <v>1110.377099909325</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W19" t="n">
-        <v>838.3506954956167</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="X19" t="n">
-        <v>592.9589408290292</v>
+        <v>858.7506050139928</v>
       </c>
       <c r="Y19" t="n">
-        <v>365.5392701431375</v>
+        <v>858.7506050139928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>908.266909529336</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C20" t="n">
-        <v>908.266909529336</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D20" t="n">
-        <v>908.266909529336</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E20" t="n">
-        <v>908.266909529336</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F20" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V20" t="n">
-        <v>1334.566480014244</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="W20" t="n">
-        <v>1334.566480014244</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="X20" t="n">
-        <v>1334.566480014244</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y20" t="n">
-        <v>1334.566480014244</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,7 +5819,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
         <v>75.67932078539587</v>
@@ -5837,19 +5837,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="M21" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="N21" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="O21" t="n">
+        <v>804.6185656731816</v>
+      </c>
+      <c r="P21" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1159.957753041174</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q21" t="n">
         <v>1580.010651986078</v>
@@ -5873,10 +5873,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>858.7506050139928</v>
+        <v>718.5617128800624</v>
       </c>
       <c r="C22" t="n">
-        <v>686.1888934972177</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D22" t="n">
-        <v>520.3109006987404</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E22" t="n">
-        <v>350.5528969494776</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F22" t="n">
-        <v>173.8458429112338</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G22" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5910,19 +5910,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>395.2818083374338</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M22" t="n">
-        <v>815.3347072823371</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N22" t="n">
-        <v>815.3347072823371</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5940,22 +5940,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U22" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V22" t="n">
-        <v>1516.524240083786</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W22" t="n">
-        <v>1516.524240083786</v>
+        <v>945.981383565954</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.988894418872</v>
+        <v>945.981383565954</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.56922373298</v>
+        <v>718.5617128800624</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1288.897306380071</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C23" t="n">
-        <v>1288.897306380071</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D23" t="n">
-        <v>890.3927724551322</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G23" t="n">
         <v>33.94366860160834</v>
@@ -5992,16 +5992,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N23" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O23" t="n">
         <v>687.9235674375537</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1685.534103554809</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1465.466876427848</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1206.244573744865</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="Y23" t="n">
-        <v>1288.897306380071</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>540.1154135929013</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,7 +6056,7 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
         <v>75.67932078539587</v>
@@ -6065,28 +6065,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1198.607791457627</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
         <v>1580.010651986078</v>
@@ -6110,10 +6110,10 @@
         <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>787.9050938934437</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>661.4193146726644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>195.1384727187784</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C25" t="n">
-        <v>195.1384727187784</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D25" t="n">
-        <v>195.1384727187784</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E25" t="n">
-        <v>195.1384727187784</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F25" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G25" t="n">
         <v>33.94366860160834</v>
@@ -6153,19 +6153,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L25" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M25" t="n">
-        <v>857.4612819097326</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
@@ -6174,25 +6174,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1697.183430080417</v>
+        <v>1549.557441504963</v>
       </c>
       <c r="T25" t="n">
-        <v>1697.183430080417</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="U25" t="n">
-        <v>1418.750429333523</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="V25" t="n">
-        <v>1131.794921203953</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="W25" t="n">
-        <v>859.7685167902448</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="X25" t="n">
-        <v>614.3767621236573</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y25" t="n">
-        <v>386.9570914377655</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="26">
@@ -6238,10 +6238,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
         <v>1107.976466382457</v>
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.00182921349</v>
+        <v>537.9746478910331</v>
       </c>
       <c r="C28" t="n">
-        <v>940.4401176967148</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5621248982375</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E28" t="n">
-        <v>604.8041211489747</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6414,22 +6414,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T28" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U28" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V28" t="n">
-        <v>1516.524240083786</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W28" t="n">
-        <v>1516.524240083786</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="X28" t="n">
-        <v>1516.524240083786</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="Y28" t="n">
-        <v>1304.820447932477</v>
+        <v>729.7932666100203</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C29" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F29" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6466,19 +6466,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O29" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P29" t="n">
         <v>1107.976466382457</v>
@@ -6493,22 +6493,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U29" t="n">
-        <v>1134.24202645431</v>
+        <v>1522.558571187644</v>
       </c>
       <c r="V29" t="n">
-        <v>771.6250763881362</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="W29" t="n">
-        <v>724.4716545351282</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="X29" t="n">
-        <v>724.4716545351282</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="Y29" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6548,19 +6548,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P30" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q30" t="n">
         <v>1580.010651986078</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>714.6817019292769</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
@@ -6627,13 +6627,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M31" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N31" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6648,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V31" t="n">
-        <v>1537.942061378414</v>
+        <v>1651.338150414452</v>
       </c>
       <c r="W31" t="n">
-        <v>1537.942061378414</v>
+        <v>1379.311746000743</v>
       </c>
       <c r="X31" t="n">
-        <v>1532.240118618369</v>
+        <v>1133.919991334156</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>906.5003206482641</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>33.94366860160834</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6703,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T32" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U32" t="n">
-        <v>1354.309253581271</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V32" t="n">
-        <v>1354.309253581271</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W32" t="n">
-        <v>949.4537989923044</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X32" t="n">
-        <v>530.3113355716151</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y32" t="n">
-        <v>122.0252118712685</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6785,16 +6785,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O33" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P33" t="n">
         <v>1159.957753041174</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.341879988165</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="C34" t="n">
-        <v>851.7801684713901</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="D34" t="n">
-        <v>685.9021756729128</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="E34" t="n">
-        <v>516.14417192365</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F34" t="n">
-        <v>339.4371178854062</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G34" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6864,13 +6864,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N34" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1516.524240083786</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>1516.524240083786</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V34" t="n">
-        <v>1516.524240083786</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W34" t="n">
-        <v>1516.524240083786</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X34" t="n">
-        <v>1443.580169393044</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="Y34" t="n">
-        <v>1216.160498707152</v>
+        <v>454.6477016666967</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.94366860160834</v>
+        <v>706.2131291869358</v>
       </c>
       <c r="C35" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6314549242041</v>
       </c>
       <c r="D35" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6314549242041</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>277.6314549242041</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6964,25 +6964,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S35" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1134.24202645431</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W35" t="n">
-        <v>729.3865718653431</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X35" t="n">
-        <v>310.2441084446538</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y35" t="n">
-        <v>310.2441084446538</v>
+        <v>706.2131291869358</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,19 +7022,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q36" t="n">
         <v>1580.010651986078</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.8488427225424</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C37" t="n">
-        <v>774.8488427225424</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D37" t="n">
-        <v>608.9708499240651</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E37" t="n">
-        <v>439.2128461748023</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F37" t="n">
-        <v>262.5057921365585</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G37" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H37" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I37" t="n">
         <v>33.94366860160834</v>
@@ -7119,28 +7119,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U37" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V37" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W37" t="n">
-        <v>1439.478886794009</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.087132127421</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.6674614415294</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1152.33908412592</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C38" t="n">
-        <v>1152.33908412592</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D38" t="n">
-        <v>1152.33908412592</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E38" t="n">
-        <v>1152.33908412592</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
         <v>33.94366860160834</v>
@@ -7177,19 +7177,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P38" t="n">
         <v>1107.976466382457</v>
@@ -7201,25 +7201,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="X38" t="n">
-        <v>1578.638654610828</v>
+        <v>843.6276236786911</v>
       </c>
       <c r="Y38" t="n">
-        <v>1578.638654610828</v>
+        <v>435.3414999783445</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>873.3120173069476</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7503057901725</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="D40" t="n">
-        <v>534.8723129916953</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="E40" t="n">
-        <v>365.1143092424325</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="F40" t="n">
-        <v>188.4072552041887</v>
+        <v>256.5228263338248</v>
       </c>
       <c r="G40" t="n">
-        <v>33.94366860160834</v>
+        <v>256.5228263338248</v>
       </c>
       <c r="H40" t="n">
-        <v>33.94366860160834</v>
+        <v>116.6206520241993</v>
       </c>
       <c r="I40" t="n">
         <v>33.94366860160834</v>
@@ -7335,49 +7335,49 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>343.6046302520008</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.942061378414</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.942061378414</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.942061378414</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W40" t="n">
-        <v>1537.942061378414</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X40" t="n">
-        <v>1292.550306711827</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="Y40" t="n">
-        <v>1065.130636025935</v>
+        <v>433.2298803720686</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1114.499252887282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.499252887282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D41" t="n">
-        <v>1114.499252887282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E41" t="n">
-        <v>1114.499252887282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F41" t="n">
-        <v>724.4716545351282</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G41" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V41" t="n">
-        <v>1114.499252887282</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W41" t="n">
-        <v>1114.499252887282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X41" t="n">
-        <v>1114.499252887282</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y41" t="n">
-        <v>1114.499252887282</v>
+        <v>437.7730279087674</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.341879988165</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C43" t="n">
-        <v>851.7801684713901</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L43" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M43" t="n">
-        <v>1181.483761245743</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N43" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7608,13 +7608,13 @@
         <v>1537.942061378414</v>
       </c>
       <c r="W43" t="n">
-        <v>1537.942061378414</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="X43" t="n">
-        <v>1443.580169393044</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.160498707152</v>
+        <v>1164.918273622851</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>752.0722867939837</v>
+        <v>846.059151609114</v>
       </c>
       <c r="C44" t="n">
-        <v>323.4906125312521</v>
+        <v>846.059151609114</v>
       </c>
       <c r="D44" t="n">
-        <v>323.4906125312521</v>
+        <v>846.059151609114</v>
       </c>
       <c r="E44" t="n">
-        <v>323.4906125312521</v>
+        <v>846.059151609114</v>
       </c>
       <c r="F44" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G44" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H44" t="n">
         <v>34.36045797446834</v>
@@ -7678,22 +7678,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V44" t="n">
-        <v>1134.24202645431</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W44" t="n">
-        <v>1134.24202645431</v>
+        <v>846.059151609114</v>
       </c>
       <c r="X44" t="n">
-        <v>1134.24202645431</v>
+        <v>846.059151609114</v>
       </c>
       <c r="Y44" t="n">
-        <v>1134.24202645431</v>
+        <v>846.059151609114</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P45" t="n">
         <v>1159.957753041174</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>194.6507809638211</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C46" t="n">
-        <v>194.6507809638211</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D46" t="n">
-        <v>194.6507809638211</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E46" t="n">
-        <v>194.6507809638211</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M46" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N46" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P46" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X46" t="n">
-        <v>613.8890703687</v>
+        <v>1163.714445861138</v>
       </c>
       <c r="Y46" t="n">
-        <v>386.4693996828083</v>
+        <v>936.2947751752459</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8300,7 +8300,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,16 +8379,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q9" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55209558322787</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8774,7 +8774,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8929,22 +8929,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -9011,7 +9011,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888816</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K17" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L17" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9245,10 +9245,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9330,13 +9330,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9403,7 +9403,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9485,22 +9485,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O22" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9640,19 +9640,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9801,22 +9801,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N25" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N25" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -10114,10 +10114,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -10196,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10275,16 +10275,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10351,22 +10351,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10433,7 +10433,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -10512,7 +10512,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10670,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10825,22 +10825,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -10907,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10983,7 +10983,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P45" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L45" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.0988912081761</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22558,7 +22558,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>27.51708619436948</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -22713,13 +22713,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.58447096502735</v>
+        <v>229.3531976336215</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22804,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>85.86596660002814</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22944,10 +22944,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>29.1547288205366</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>99.78470524497106</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -23026,19 +23026,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>103.4736121060642</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>85.45334512089676</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23187,10 +23187,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4.792107824138469</v>
+        <v>140.1416979164046</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>41.59158213157997</v>
       </c>
       <c r="X11" t="n">
-        <v>299.8509938116348</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.9534186340196</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.62812008109364</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23469,7 +23469,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>14.20042151086898</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>367.3585212194131</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23548,22 +23548,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>24.0271571203391</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>68.59612433736129</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>176.2255396603601</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>23.86766477987715</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45688140729075</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>177.8448654381758</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>242.04407432975</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24028,7 +24028,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>65.82706159975959</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>231.975317422521</v>
       </c>
       <c r="X22" t="n">
-        <v>6.787844911656521</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>37.0311983916107</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>71.28252181764911</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.35712742186297</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24414,22 +24414,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>11.49922632528396</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>17.94908163614656</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5587197492369</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24694,7 +24694,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>166.5668244303089</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>354.1250124085991</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -24897,13 +24897,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>238.6991261789679</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>237.2929137874768</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>334.8358469430951</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>298.2216617877332</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>14.2767642082654</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>170.7232071360872</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>148.4991393354438</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,7 +25165,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>182.3378468355145</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>257.5992944733562</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>171.2060219734948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25402,13 +25402,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>254.2228670050345</v>
       </c>
       <c r="X38" t="n">
-        <v>297.5917110715893</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>11.01641148787604</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>5.923136144706348</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>419.62936212894</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>37.46143292625169</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1580644705971</v>
       </c>
       <c r="X43" t="n">
-        <v>149.5195640544054</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.6885325163359</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>17.39090165955389</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>15.83994225927069</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>137.0767927968291</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>367227.2781505617</v>
+        <v>367227.2781505616</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367227.2781505617</v>
+        <v>367227.2781505616</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367227.2781505617</v>
+        <v>367227.2781505616</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>367227.2781505617</v>
+        <v>367227.2781505616</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="C2" t="n">
         <v>84141.63629345148</v>
       </c>
-      <c r="C2" t="n">
-        <v>84141.63629345149</v>
-      </c>
       <c r="D2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="F2" t="n">
         <v>84141.63629345148</v>
-      </c>
-      <c r="E2" t="n">
-        <v>84141.63629345149</v>
-      </c>
-      <c r="F2" t="n">
-        <v>84141.63629345146</v>
       </c>
       <c r="G2" t="n">
         <v>84141.63629345148</v>
@@ -26334,28 +26334,28 @@
         <v>84141.63629345148</v>
       </c>
       <c r="I2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345151</v>
       </c>
       <c r="J2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="K2" t="n">
         <v>84141.63629345146</v>
       </c>
       <c r="L2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="M2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="N2" t="n">
+        <v>84141.63629345146</v>
+      </c>
+      <c r="O2" t="n">
         <v>84141.63629345149</v>
       </c>
-      <c r="M2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="N2" t="n">
-        <v>84141.63629345148</v>
-      </c>
-      <c r="O2" t="n">
-        <v>84141.63629345148</v>
-      </c>
       <c r="P2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345149</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="C4" t="n">
         <v>31028.66177247689</v>
@@ -26426,13 +26426,13 @@
         <v>31028.66177247689</v>
       </c>
       <c r="E4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="F4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="G4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="H4" t="n">
         <v>31028.6617724769</v>
@@ -26447,13 +26447,13 @@
         <v>31028.66177247689</v>
       </c>
       <c r="L4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="M4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="N4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="O4" t="n">
         <v>31028.66177247689</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148503.1142759577</v>
+        <v>-149242.4708878734</v>
       </c>
       <c r="C6" t="n">
-        <v>-6311.813616247746</v>
+        <v>-7051.170228163414</v>
       </c>
       <c r="D6" t="n">
-        <v>-6311.81361624776</v>
+        <v>-7051.170228163429</v>
       </c>
       <c r="E6" t="n">
-        <v>27315.78638375225</v>
+        <v>26576.42977183657</v>
       </c>
       <c r="F6" t="n">
-        <v>27315.78638375222</v>
+        <v>26576.42977183659</v>
       </c>
       <c r="G6" t="n">
-        <v>27315.78638375223</v>
+        <v>26576.42977183659</v>
       </c>
       <c r="H6" t="n">
-        <v>27315.78638375223</v>
+        <v>26576.42977183658</v>
       </c>
       <c r="I6" t="n">
-        <v>27315.78638375224</v>
+        <v>26576.42977183661</v>
       </c>
       <c r="J6" t="n">
-        <v>-83698.67896123795</v>
+        <v>-84438.03557315361</v>
       </c>
       <c r="K6" t="n">
-        <v>27315.78638375222</v>
+        <v>26576.42977183657</v>
       </c>
       <c r="L6" t="n">
-        <v>27315.78638375225</v>
+        <v>26576.42977183659</v>
       </c>
       <c r="M6" t="n">
-        <v>27315.78638375223</v>
+        <v>26576.42977183657</v>
       </c>
       <c r="N6" t="n">
-        <v>27315.78638375223</v>
+        <v>26576.42977183657</v>
       </c>
       <c r="O6" t="n">
-        <v>27315.78638375224</v>
+        <v>26576.4297718366</v>
       </c>
       <c r="P6" t="n">
-        <v>27315.78638375223</v>
+        <v>26576.42977183659</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35020,7 +35020,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q9" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>42.55209558322787</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N10" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35649,22 +35649,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
@@ -35731,7 +35731,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>358.9284720888816</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.38468441396094</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K17" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L17" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -35965,10 +35965,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -36123,7 +36123,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36205,22 +36205,22 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>358.9284720888814</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O22" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36360,19 +36360,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>424.2958575201044</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2554146752025</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36521,22 +36521,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>310.9272166398487</v>
+      </c>
+      <c r="N25" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="N25" t="n">
-        <v>424.2958575201044</v>
-      </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,13 +36606,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>424.2958575201044</v>
@@ -36834,10 +36834,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>424.2958575201044</v>
@@ -36916,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36995,16 +36995,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O31" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37071,22 +37071,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37153,7 +37153,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>424.2958575201044</v>
@@ -37232,7 +37232,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37241,7 +37241,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37390,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37545,22 +37545,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
@@ -37627,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37703,7 +37703,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>225.3346227128309</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37721,7 +37721,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>58.38468441396105</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P45" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L45" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>424.2958575201044</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O46" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
